--- a/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 44,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 89,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,41%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,16</t>
+          <t>-18,06; 44,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>0,0; 40,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,35</t>
+          <t>-18,09; 89,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>0,0; 67,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-33,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -789,29 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 133,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-33,05</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,78</t>
+          <t>-13,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>-13,41%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>0,0; 45,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,19</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>0,0; 82,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 133,59</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 44,42</t>
+          <t>-18,1; 43,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,15</t>
+          <t>0,0; 38,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 89,13</t>
+          <t>-18,13; 76,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,07</t>
+          <t>0,0; 63,81</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,19</t>
+          <t>0,0; 59,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 133,59</t>
+          <t>0,0; 150,7</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,16</t>
+          <t>0,0; 45,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>-58,91; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,35</t>
+          <t>0,0; 83,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>-58,91; 0,0</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 16,2</t>
+          <t>-11,93; 16,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 17,21</t>
+          <t>-4,67; 16,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 19,87</t>
+          <t>-12,92; 19,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 21,45</t>
+          <t>-4,82; 20,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 43,36</t>
+          <t>-18,04; 43,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,96</t>
+          <t>0,0; 33,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 76,62</t>
+          <t>-18,07; 75,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,81</t>
+          <t>0,0; 51,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,74</t>
+          <t>0,0; 57,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 150,7</t>
+          <t>0,0; 134,93</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,39</t>
+          <t>0,0; 46,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 0,0</t>
+          <t>-63,38; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,1</t>
+          <t>0,0; 88,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 0,0</t>
+          <t>-63,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 16,34</t>
+          <t>-11,39; 16,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 16,67</t>
+          <t>-4,47; 16,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 19,64</t>
+          <t>-11,89; 20,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 20,23</t>
+          <t>-4,71; 21,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,06; 44,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 40,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,09; 89,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 67,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>-33,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 43,28</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,93</t>
+          <t>0,0; 57,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 75,88</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,54</t>
+          <t>0,0; 133,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-33,05</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,78</t>
+          <t>-13,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>-13,41%</t>
         </is>
       </c>
     </row>
@@ -789,29 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>0,0; 45,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,43</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>0,0; 82,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 134,93</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,41%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -849,94 +849,34 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,68</t>
+          <t>-13,86; 16,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 0,0</t>
+          <t>-2,76; 17,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,46</t>
+          <t>-14,33; 19,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 0,0</t>
+          <t>-2,93; 21,45</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,39; 16,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 16,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,89; 20,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 21,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -945,7 +885,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
